--- a/completed-lesson-plans/smart-lesson-plans-20241023.xlsx
+++ b/completed-lesson-plans/smart-lesson-plans-20241023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="87">
   <si>
     <t>Content ID</t>
   </si>
@@ -528,6 +528,127 @@
   </si>
   <si>
     <t>&lt;p&gt;1. What was one of John F. Kennedy's major plans upon taking office during the Cold War?&lt;br&gt;A. To withdraw all US troops from Europe&lt;br&gt;B. To improve the US space program and land a person on the moon&lt;br&gt;C. To establish a peace treaty with the Soviet Union&lt;br&gt;D. To increase tariffs on foreign goods&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. How did the United States respond to the threat of Communism in Cuba under Kennedy's administration?&lt;br&gt;A. By ignoring the situation in Cuba completely&lt;br&gt;B. By launching an open war against Soviet Union&lt;br&gt;C. By training Cubans to overthrow the Communist government&lt;br&gt;D. By negotiating peace with the Communist leader&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;3. Which event highlighted the tension between the United States and the Soviet Union regarding nuclear weapons?&lt;br&gt;A. The signing of the Treaty of Versailles&lt;br&gt;B. The Bay of Pigs invasion&lt;br&gt;C. The Cuban Missile Crisis&lt;br&gt;D. The Marshall Plan&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;4. What action did Kennedy take in response to the discovery of Soviet missile bases in Cuba?&lt;br&gt;A. He chose to negotiate with Soviet leaders for their removal&lt;br&gt;B. He ordered the military to invade Cuba immediately&lt;br&gt;C. He established a naval blockade to prevent supplies from reaching Cuba&lt;br&gt;D. He withdrew American troops from Cuba&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;5. What was a consequence of the Cold War on international relations, as reflected in Kennedy's policies?&lt;br&gt;A. Increased cooperation between the United States and the Soviet Union&lt;br&gt;B. A focus on domestic issues over international concerns&lt;br&gt;C. Heightened military involvement in countries threatened by Communism&lt;br&gt;D. Decreased space exploration efforts&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the pivotal plans and actions of President John F. Kennedy during his administration, focusing on domestic initiatives, international relations, and the Cold War context. Through detailed accounts of events such as the Bay of Pigs invasion and the Cuban Missile Crisis, the author conveys Kennedy's strategic decisions and their implications.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;poverty (noun): the state of being extremely poor.&lt;/li&gt;
+&lt;li&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/li&gt;
+&lt;li&gt;Cold War (proper noun): the period of geopolitical tension between the Soviet Union and the United States after World War II.&lt;/li&gt;
+&lt;li&gt;Soviet Union (proper noun): a former federation of communist republics in Eastern Europe and northern Asia.&lt;/li&gt;
+&lt;li&gt;Communist Soviet Union (proper noun): a reference to the Soviet Union as a communist state.&lt;/li&gt;
+&lt;li&gt;relationships (noun): the way in which two or more people or groups regard and behave toward each other.&lt;/li&gt;
+&lt;li&gt;Communism (proper noun): a political and economic ideology advocating for a classless system in which the means of production are communally owned.&lt;/li&gt;
+&lt;li&gt;overthrow (verb): to remove forcibly from power.&lt;/li&gt;
+&lt;li&gt;Communist (proper adjective): relating to or advocating for communism.&lt;/li&gt;
+&lt;li&gt;Bay of Pigs (proper noun): a coastal area in Cuba known for the failed invasion of Cubans in 1961.&lt;/li&gt;
+&lt;li&gt;Communist China (proper noun): a reference to the People's Republic of China as a communist state.&lt;/li&gt;
+&lt;li&gt;weapons (noun): objects used to inflict physical harm or damage.&lt;/li&gt;
+&lt;li&gt;nuclear (adjective): relating to the nucleus of an atom, often associated with weapons of mass destruction.&lt;/li&gt;
+&lt;li&gt;supplies (noun): the necessary items required for a particular purpose.&lt;/li&gt;
+&lt;li&gt;advisers (noun): people who provide guidance or recommendations.&lt;/li&gt;
+&lt;li&gt;showdown (noun): a decisive confrontation or contest.&lt;/li&gt;
+&lt;li&gt;Cuban Missile Crisis (proper noun): a 1962 confrontation between the United States and the Soviet Union over missile deployment in Cuba.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist Soviet Union* did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent *weapons* to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing *supplies* there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of John F. Kennedy&amp;rsquo;s key plans regarding the space race during the Cold War?&lt;br&gt;A. To increase military presence in Europe&lt;br&gt;B. To send a person to the moon before the Soviet Union&lt;br&gt;C. To strengthen trade relations with Communist countries&lt;br&gt;D. To establish a United Nations peacekeeping mission&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;2. How did the Cold War influence U.S. foreign policy in Latin America?&lt;br&gt;A. The U.S. sought to promote trade with Communist nations&lt;br&gt;B. The U.S. supported a Cuban invasion to help Communist leaders&lt;br&gt;C. The U.S. trained Cubans to overthrow their Communist leader&lt;br&gt;D. The U.S. engaged in direct military intervention in all Latin American countries&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;3. What was a major international event during the Cold War that escalated tensions between the United States and the Soviet Union?&lt;br&gt;A. The invasion of Europe in World War II&lt;br&gt;B. The Cuban Missile Crisis&lt;br&gt;C. The founding of the United Nations&lt;br&gt;D. The signing of the Treaty of Versailles&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;4. In response to Communist aggression in other countries, what action did Kennedy take concerning South Vietnam?&lt;br&gt;A. He withdrew all military advisers&lt;br&gt;B. He sent vaccines and aid to the population&lt;br&gt;C. He sent thousands of U.S. military advisers to support the South&lt;br&gt;D. He called for a cease-fire between North and South Vietnam&lt;br&gt;[BEST.ELA.K12.EE.3.1; CCSS.RI.3.1]&lt;br&gt;&lt;br&gt;5. What was the result of Kennedy's decision to block Cuba's coast during the Cuban Missile Crisis?&lt;br&gt;A. A nuclear war broke out between the U.S. and the Soviet Union&lt;br&gt;B. The Soviet ships stayed away from the blocked area&lt;br&gt;C. The United States launched missiles at Cuba&lt;br&gt;D. Kennedy changed his policy on Communism&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the plans and challenges faced by John F. Kennedy during his presidency through factual recounting and analysis of key historical events, including his domestic policies and foreign relations strategies.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;poverty (noun): the state of being extremely poor.&lt;/li&gt;
+&lt;li&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/li&gt;
+&lt;li&gt;Cold War (proper noun): the period of geopolitical tension between the Soviet Union and the United States and their respective allies after World War II.&lt;/li&gt;
+&lt;li&gt;Soviet Union (proper noun): a former federal socialist state in eastern Europe and northern Asia that existed from 1922 to 1991.&lt;/li&gt;
+&lt;li&gt;Communist (proper adjective): relating to or characterized by communism, a political and economic ideology.&lt;/li&gt;
+&lt;li&gt;space (noun): the vast, seemingly infinite expanse that exists beyond Earth and between celestial bodies.&lt;/li&gt;
+&lt;li&gt;relationships (noun): the way in which two or more people or groups regard and behave toward each other.&lt;/li&gt;
+&lt;li&gt;Communism (proper noun): a political and economic ideology advocating for a classless system in which the means of production are owned communally.&lt;/li&gt;
+&lt;li&gt;Bay of Pigs (proper noun): a failed military invasion of Cuba undertaken by the United States in 1961.&lt;/li&gt;
+&lt;li&gt;Communist (proper adjective): relating to or characterized by communism, a political and economic ideology.&lt;/li&gt;
+&lt;li&gt;weapons (noun): tools or devices used for fighting or attacking.&lt;/li&gt;
+&lt;li&gt;Communist (proper adjective): relating to or characterized by communism, a political and economic ideology.&lt;/li&gt;
+&lt;li&gt;nuclear missile (noun): a missile capable of delivering a nuclear warhead to a target.&lt;/li&gt;
+&lt;li&gt;supplies (noun): the provisions or materials required for a particular purpose.&lt;/li&gt;
+&lt;li&gt;shipping (noun): the act of transporting goods or cargo.&lt;/li&gt;
+&lt;li&gt;nuclear (adjective): relating to the atomic nucleus or nuclear energy.&lt;/li&gt;
+&lt;li&gt;showdown (noun): a decisive confrontation or contest.&lt;/li&gt;
+&lt;li&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation in October 1962 between the United States and the Soviet Union concerning Soviet ballistic missiles deployed in Cuba.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US *space* program. &lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to overthrow Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent *weapons* to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear missile* bases were being built in Cuba. He wanted to stop Soviet ships from bringing *supplies* there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its *shipping* rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. How did John F. Kennedy's actions during the Cold War reflect America's desire to contain Communism?&lt;br&gt;A. By improving civil rights programs &lt;br&gt;B. By sending weapons to allies fighting Communism &lt;br&gt;C. By cooperating with the Soviet Union &lt;br&gt;D. By focusing solely on domestic issues &lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)] &lt;br&gt;&lt;br&gt;2. What was one consequence of the Bay of Pigs invasion led by Kennedy's administration?&lt;br&gt;A. Strengthened U.S. relations with Cuba &lt;br&gt;B. Increased support for Communism in Latin America &lt;br&gt;C. Successful overthrow of the Cuban government &lt;br&gt;D. Heightened tensions between the U.S. and the Soviet Union &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)] &lt;br&gt;&lt;br&gt;3. How did Kennedy's response to the Cuban Missile Crisis exemplify a pivotal moment in U.S.-Soviet relations?&lt;br&gt;A. It demonstrated American willingness to retreat during conflict &lt;br&gt;B. It showed the effectiveness of military intervention in foreign crises &lt;br&gt;C. It marked a successful negotiation that avoided nuclear war &lt;br&gt;D. It led to an immediate partnership with the Soviet Union &lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;4. What role did the space race play in shaping international relations during the Cold War?&lt;br&gt;A. It caused nations to collaborate on technology &lt;br&gt;B. It increased competition and national prestige between the U.S. and the Soviet Union &lt;br&gt;C. It led to combined military ventures &lt;br&gt;D. It reduced tensions between ideologies &lt;br&gt;[CCSS.RI.3.1; BEST.ELA.K12.EE.3.1] &lt;br&gt;&lt;br&gt;5. What inference can be made about Kennedy's military involvement in Vietnam and its impact on international relations?&lt;br&gt;A. It isolated the U.S. from global conflicts &lt;br&gt;B. It encouraged stronger alliances in Southeast Asia &lt;br&gt;C. It showed a commitment to fighting against communism globally &lt;br&gt;D. It indicated a lack of interest in foreign military engagements &lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)] &lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the key plans and actions of President John F. Kennedy during his administration, highlighting his initiatives in civil rights, the space program, and international relations through concise historical accounts and factual details.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;poverty (noun): the state of being extremely poor.&lt;/li&gt;
+&lt;li&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/li&gt;
+&lt;li&gt;Cold War (proper noun): a period of geopolitical tension between the Soviet Union and the United States after World War II.&lt;/li&gt;
+&lt;li&gt;Soviet Union (proper noun): a former federal socialist state in northern Eurasia that existed from 1922 to 1991.&lt;/li&gt;
+&lt;li&gt;Communist (proper adjective): relating to the political and economic ideology of communism.&lt;/li&gt;
+&lt;li&gt;space program (noun): a program for the exploration of outer space.&lt;/li&gt;
+&lt;li&gt;Communism (proper noun): a political and economic ideology advocating for class war and leading to a society in which all property is publicly owned.&lt;/li&gt;
+&lt;li&gt;overthrow (verb): to remove from power, usually by force.&lt;/li&gt;
+&lt;li&gt;Bay of Pigs (proper noun): a failed invasion of Cuba in 1961 by Cuban exiles, supported by the U.S. government.&lt;/li&gt;
+&lt;li&gt;Communist (proper adjective): relating to or characteristic of communism.&lt;/li&gt;
+&lt;li&gt;weapons (noun): tools or instruments used for combat or warfare.&lt;/li&gt;
+&lt;li&gt;advisers (noun): individuals who provide advice, typically in a professional context.&lt;/li&gt;
+&lt;li&gt;nuclear (adjective): relating to the nucleus of an atom, often used in the context of nuclear energy or weapons.&lt;/li&gt;
+&lt;li&gt;showdown (noun): a decisive confrontation or contest.&lt;/li&gt;
+&lt;li&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation in October 1962 between the United States and the Soviet Union over nuclear missiles deployed in Cuba.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US *space program*. &lt;br&gt;&lt;br&gt;Relationships with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s Communist leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent *weapons* to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting Communist North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A nuclear war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of John F. Kennedy's priorities when he became President in 1961? &lt;br&gt;A. To reduce military presence in Vietnam &lt;br&gt;B. To improve civil rights &lt;br&gt;C. To decrease space exploration &lt;br&gt;D. To strengthen ties with the Soviet Union &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;2. How did Kennedy respond to the spread of Communism in Cuba? &lt;br&gt;A. By establishing a peaceful negotiation &lt;br&gt;B. By training a group of Cubans to invade Cuba &lt;br&gt;C. By withdrawing all American forces &lt;br&gt;D. By forming an alliance with the Soviets &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;3. Which event is described as a significant point of crisis during Kennedy's presidency? &lt;br&gt;A. The Bay of Pigs invasion &lt;br&gt;B. The Apollo 11 moon landing &lt;br&gt;C. The Cuban Missile Crisis &lt;br&gt;D. The Vietnam War escalation &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;4. What action did Kennedy take in response to the Soviet missile bases found in Cuba? &lt;br&gt;A. He launched an immediate attack on Cuba &lt;br&gt;B. He blockaded Cuba&amp;rsquo;s coast &lt;br&gt;C. He initiated peace talks with the Soviet Union &lt;br&gt;D. He ignored the situation entirely &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;5. What was one consequence of America's actions during the Cold War, as indicated in the article? &lt;br&gt;A. Strengthened relations with Communist countries &lt;br&gt;B. Increased cooperation among NATO members &lt;br&gt;C. Escalation of military involvement in Vietnam &lt;br&gt;D. A decline in US technological advancements &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the key plans and challenges faced by President John F. Kennedy during his administration through a detailed presentation of historical events and strategies. The text highlights Kennedy's initiatives regarding civil rights, the space race, and foreign relations amidst the Cold War context.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;poverty (noun): the state of being extremely poor.&lt;/li&gt;
+&lt;li&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/li&gt;
+&lt;li&gt;cold war (proper noun): the state of political hostility between the Soviet bloc and the US-led Western powers.&lt;/li&gt;
+&lt;li&gt;soviet (proper adjective): relating to the former Soviet Union.&lt;/li&gt;
+&lt;li&gt;communist (proper adjective): relating to or advocating the political and economic system of communism.&lt;/li&gt;
+&lt;li&gt;space program (noun): a government-funded program aimed at the exploration of space.&lt;/li&gt;
+&lt;li&gt;relationships (noun): the way in which two or more people or groups regard and behave toward each other.&lt;/li&gt;
+&lt;li&gt;communism (proper noun): a political and economic ideology advocating for a classless system and collective ownership.&lt;/li&gt;
+&lt;li&gt;cubans (proper noun): citizens of Cuba.&lt;/li&gt;
+&lt;li&gt;bay of pigs (proper noun): a coastal area in Cuba where an unsuccessful invasion occurred in 1961.&lt;/li&gt;
+&lt;li&gt;failed (verb): did not succeed.&lt;/li&gt;
+&lt;li&gt;communist (proper adjective): relating to or advocating the political and economic system of communism.&lt;/li&gt;
+&lt;li&gt;india (proper noun): a country in South Asia.&lt;/li&gt;
+&lt;li&gt;vietnam (proper noun): a country in Southeast Asia.&lt;/li&gt;
+&lt;li&gt;advisers (noun): individuals who offer advice, especially in a professional capacity.&lt;/li&gt;
+&lt;li&gt;nuclear (adjective): relating to the nucleus of an atom or to the energy produced by nuclear reactions.&lt;/li&gt;
+&lt;li&gt;navy (proper noun): a branch of a nation's armed forces that conducts military operations at sea.&lt;/li&gt;
+&lt;li&gt;rights (noun): legal, social, or ethical principles of freedom or entitlement.&lt;/li&gt;
+&lt;li&gt;cuban missile crisis (proper noun): a 13-day confrontation between the United States and the Soviet Union in 1962 over the presence of missile sites in Cuba.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet* Union. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US *space program*. &lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of *Cubans* to overthrow Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort *failed*. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded *India*. Kennedy sent weapons to India&amp;rsquo;s army. Meanwhile, South *Vietnam* was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop *Soviet* ships from bringing supplies there. So, Kennedy stated that the US *Navy* would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping *rights*. A *nuclear* war could begin. But Kennedy held his ground. The *Soviet* ships stayed away from the blocked area. Kennedy won the showdown! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of John F. Kennedy's major plans when he took office as President?&lt;br&gt;A. To dissolve the space program &lt;br&gt;B. To improve civil rights &lt;br&gt;C. To promote isolationism &lt;br&gt;D. To end the Cold War&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;2. Which event depicted the efforts of the United States to intervene in Cuba during the Cold War?&lt;br&gt;A. The Cuban Missile Crisis &lt;br&gt;B. The Bay of Pigs invasion &lt;br&gt;C. The Space Race &lt;br&gt;D. The Vietnam War&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;3. How did the Cold War affect U.S. military involvement in South Vietnam?&lt;br&gt;A. The U.S. decreased its military presence &lt;br&gt;B. The U.S. sent thousands of military advisers &lt;br&gt;C. The U.S. remained neutral &lt;br&gt;D. The U.S. declared war on China&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;4. What was one result of Kennedy's response to the Soviet Union's actions in Cuba?&lt;br&gt;A. The Soviet Union retreated from Cuba &lt;br&gt;B. A nuclear war broke out &lt;br&gt;C. The Bay of Pigs invasion was successful &lt;br&gt;D. The U.S. signed a peace treaty with Cuba&lt;br&gt;[BEST.ELA.K12.EE.3.1; CCSS.RI.3.1]&lt;br&gt;&lt;br&gt;5. What was the significance of the Cuban Missile Crisis during the Cold War?&lt;br&gt;A. It marked the end of the Cold War &lt;br&gt;B. It was a critical point in U.S.-Soviet relations &lt;br&gt;C. It led to an increase in space exploration funding &lt;br&gt;D. It resulted in the establishment of diplomatic relations with China&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -904,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F39"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,6 +1648,166 @@
         <v>70</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/completed-lesson-plans/smart-lesson-plans-20241023.xlsx
+++ b/completed-lesson-plans/smart-lesson-plans-20241023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
   <si>
     <t>Content ID</t>
   </si>
@@ -649,6 +649,176 @@
   </si>
   <si>
     <t>&lt;p&gt;1. What was one of John F. Kennedy's major plans when he took office as President?&lt;br&gt;A. To dissolve the space program &lt;br&gt;B. To improve civil rights &lt;br&gt;C. To promote isolationism &lt;br&gt;D. To end the Cold War&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;2. Which event depicted the efforts of the United States to intervene in Cuba during the Cold War?&lt;br&gt;A. The Cuban Missile Crisis &lt;br&gt;B. The Bay of Pigs invasion &lt;br&gt;C. The Space Race &lt;br&gt;D. The Vietnam War&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;3. How did the Cold War affect U.S. military involvement in South Vietnam?&lt;br&gt;A. The U.S. decreased its military presence &lt;br&gt;B. The U.S. sent thousands of military advisers &lt;br&gt;C. The U.S. remained neutral &lt;br&gt;D. The U.S. declared war on China&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;4. What was one result of Kennedy's response to the Soviet Union's actions in Cuba?&lt;br&gt;A. The Soviet Union retreated from Cuba &lt;br&gt;B. A nuclear war broke out &lt;br&gt;C. The Bay of Pigs invasion was successful &lt;br&gt;D. The U.S. signed a peace treaty with Cuba&lt;br&gt;[BEST.ELA.K12.EE.3.1; CCSS.RI.3.1]&lt;br&gt;&lt;br&gt;5. What was the significance of the Cuban Missile Crisis during the Cold War?&lt;br&gt;A. It marked the end of the Cold War &lt;br&gt;B. It was a critical point in U.S.-Soviet relations &lt;br&gt;C. It led to an increase in space exploration funding &lt;br&gt;D. It resulted in the establishment of diplomatic relations with China&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the key plans and actions of President John F. Kennedy during his time in office, detailing initiatives related to civil rights, the space program, and foreign policy. The text employs straightforward language to convey significant historical events, including the Bay of Pigs invasion and the Cuban Missile Crisis.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): the geopolitical tension between the Soviet Union and the United States after World War II.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characteristic of the Communist Party or its members.&lt;/p&gt;
+&lt;p&gt;relationships (noun): the way in which two or more people or groups regard and behave toward each other.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology advocating for a classless system in which the means of production are owned communally.&lt;/p&gt;
+&lt;p&gt;weapons (noun): instruments used for attack or defense in combat or conflict.&lt;/p&gt;
+&lt;p&gt;military (noun): the armed forces of a country.&lt;/p&gt;
+&lt;p&gt;advisers (noun): people who give advice, especially in a professional capacity.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to or constituting a nucleus, especially in reference to energy produced through nuclear reactions.&lt;/p&gt;
+&lt;p&gt;supplies (noun): the action of providing something for use.&lt;/p&gt;
+&lt;p&gt;showdown (noun): a decisive confrontation or contest.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation in October 1962 between the United States and the Soviet Union over Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the Soviet Union. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to overthrow Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the Bay of Pigs. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent *weapons* to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US *military* *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing *supplies* there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ol&gt;
+&lt;li&gt;1. What was one of John F. Kennedy's main goals during his presidency related to the Cold War?&lt;br&gt;A. Establishing a peace treaty with the Soviet Union&lt;br&gt;B. Stopping the spread of Communism&lt;br&gt;C. Increasing military spending without restraint&lt;br&gt;D. Ignoring international conflicts&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;2. How did the U.S. respond to the presence of nuclear missile bases in Cuba during the Cuban Missile Crisis?&lt;br&gt;A. By launching an immediate attack on Cuba&lt;br&gt;B. By negotiating a peace agreement with the Soviet Union&lt;br&gt;C. By blocking Soviet ships from supplying Cuba&lt;br&gt;D. By abandoning any military presence in the region&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;3. Which event signified a high point of tension during the Cold War under Kennedy's administration?&lt;br&gt;A. The Bay of Pigs Invasion&lt;br&gt;B. The launch of Sputnik&lt;br&gt;C. The Cuban Missile Crisis&lt;br&gt;D. The signing of the SALT treaty&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;4. What was a consequence of America&amp;rsquo;s involvement in the Cuban Missile Crisis as described in the text?&lt;br&gt;A. A diplomatic resolution that ended the Cold War&lt;br&gt;B. Increased tensions but a victory for U.S. leadership&lt;br&gt;C. A direct conflict resulting in military casualties&lt;br&gt;D. The immediate dismantling of missile sites in Cuba&lt;br&gt;[BEST.ELA.K12.EE.3.1; CCSS.RI.4.1]&lt;br&gt;&lt;br&gt;5. How did Kennedy's actions during the Cold War influence U.S. international relations?&lt;br&gt;A. They promoted isolationism and reduced foreign engagements.&lt;br&gt;B. They led to military interventions in support of anti-Communist governments.&lt;br&gt;C. They focused solely on European relations, ignoring Asia.&lt;br&gt;D. They resulted in a strategy of passive observation of global events.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;In this informational e-book, Megan M. Gunderson describes the key plans and actions of John F. Kennedy during his presidency, highlighting programs aimed at economic improvement, civil rights, and foreign relations amidst the Cold War. Through factual language, the text details significant events, such as the Bay of Pigs invasion and the Cuban Missile Crisis, illustrating Kennedy's approach to leadership during a tumultuous period in American history.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): a geopolitical tension between the Soviet Union and the United States after World War II.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a socialist state in Eurasia that existed from 1922 to 1991.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to a political ideology advocating for a classless system in which the means of production are owned communally.&lt;/p&gt;
+&lt;p&gt;relationships (noun): the way in which two or more people or groups regard and behave toward each other.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political ideology advocating for a classless society in which all property is publicly owned.&lt;/p&gt;
+&lt;p&gt;Cubans (proper noun): people from Cuba or of Cuban descent.&lt;/p&gt;
+&lt;p&gt;overthrow (verb): to remove forcibly from power.&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): a failed military invasion of Cuba undertaken by a CIA-sponsored paramilitary group.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characterized by Communism.&lt;/p&gt;
+&lt;p&gt;weapons (noun): instruments used in combat or warfare.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom; often used in the context of weapons of mass destruction.&lt;/p&gt;
+&lt;p&gt;supplies (noun): the provisions or resources needed for a particular purpose.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the energy produced by nuclear reactions.&lt;/p&gt;
+&lt;p&gt;military (adjective): relating to or characteristic of soldiers or armed forces.&lt;/p&gt;
+&lt;p&gt;advisers (noun): people who offer advice or guidance.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characterized by Communism.&lt;/p&gt;
+&lt;p&gt;South Vietnam (proper noun): a former country in Southeast Asia that existed from 1955 until 1976.&lt;/p&gt;
+&lt;p&gt;North Vietnam (proper noun): a former state that existed from 1945 until 1976 known for its communist government.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation between the United States and the Soviet Union over Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of *Cubans* to *overthrow* Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent *weapons* to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing *supplies* there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of John F. Kennedy's plans when he became President of the United States in 1961?&lt;br&gt;A. To end all military alliances&lt;br&gt;B. To put a person on the moon before the Soviet Union&lt;br&gt;C. To dismantle the space program&lt;br&gt;D. To normalize relations with Cuba&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. How did the Cold War influence U.S. actions in Cuba during Kennedy's presidency?&lt;br&gt;A. The U.S. tried to remove the Communist government through a military invasion.&lt;br&gt;B. The U.S. ignored the situation in Cuba completely.&lt;br&gt;C. The U.S. provided economic support to the Cuban government.&lt;br&gt;D. The U.S. established a trade agreement with Cuba.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); CCSS.RI.5.1]&lt;br&gt;&lt;br&gt;3. What was the outcome of the Bay of Pigs invasion?&lt;br&gt;A. It successfully overthrew the Communist government of Cuba.&lt;br&gt;B. It led to a stronger relationship between the U.S. and Cuba.&lt;br&gt;C. It was a failed attempt to affect regime change in Cuba.&lt;br&gt;D. It resulted in the U.S. declaring war on the Soviet Union.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;4. During the Cuban Missile Crisis, what was Kennedy's primary concern regarding the Soviet Union?&lt;br&gt;A. The potential for nuclear war&lt;br&gt;B. Establishing peace talks&lt;br&gt;C. Building more military bases&lt;br&gt;D. Supplying Cuba with food&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); CCSS.RI.5.1]&lt;br&gt;&lt;br&gt;5. How did Kennedy respond to the Soviet Union's actions during the Cuban Missile Crisis?&lt;br&gt;A. He retreated from the blockade strategy.&lt;br&gt;B. He sent additional troops to Cuba.&lt;br&gt;C. He imposed economic sanctions on the Soviet Union.&lt;br&gt;D. He established a naval blockade to prevent supplies from reaching Cuba.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;In this informational e-book, Megan M. Gunderson describes the significant plans and actions of John F. Kennedy during his presidency, detailing his efforts in domestic policy, foreign relations, and the space race through straightforward and factual language choices. The text highlights key events such as the Bay of Pigs invasion and the Cuban Missile Crisis, emphasizing Kennedy's strategic decisions in a time of national and global tension.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): the period of political tension between the Soviet Union and the United States after World War II&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a former federation of communist republics in Eastern Europe and Northern Asia&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or based on the principles of communism&lt;/p&gt;
+&lt;p&gt;space program (noun): a research and development program to create technology for the exploration of outer space&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology advocating for a classless system in which the means of production are communally owned&lt;/p&gt;
+&lt;p&gt;overthrow (verb): to remove forcibly from power&lt;/p&gt;
+&lt;p&gt;Cuba (proper noun): a country in the Caribbean&lt;/p&gt;
+&lt;p&gt;Vietnamese (proper adjective): relating to Vietnam or its people&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom; involving weapons derived from nuclear reactions&lt;/p&gt;
+&lt;p&gt;missile (noun): a self-propelled weapon that is still guided and has a target&lt;/p&gt;
+&lt;p&gt;showdown (noun): a decisive confrontation or contest&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 1962 confrontation between the United States and the Soviet Union over Soviet missiles in Cuba&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US *space program*. &lt;br&gt;&lt;br&gt;Relationships with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the Bay of Pigs. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent weapons to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South *Vietnamese*. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* *missile* bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of Kennedy's goals during his presidency that directly related to the Cold War?&lt;br&gt;A. To increase civil rights&lt;br&gt;B. To reduce military spending&lt;br&gt;C. To put a person on the moon before the Soviet Union&lt;br&gt;D. To negotiate peace with Cuba&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. Which event highlighted the tensions between the United States and the Soviet Union during the Cold War?&lt;br&gt;A. The Bay of Pigs invasion&lt;br&gt;B. The establishment of NATO&lt;br&gt;C. The Marshall Plan&lt;br&gt;D. The signing of the Treaty of Versailles&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;3. How did Kennedy respond to the threat of nuclear missiles in Cuba?&lt;br&gt;A. He ignored the situation&lt;br&gt;B. He sent troops to Cuba&lt;br&gt;C. He blockaded Cuba's coast&lt;br&gt;D. He immediately attacked the missile sites&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;4. What was the outcome of the Bay of Pigs invasion?&lt;br&gt;A. It successfully overthrew Castro's regime&lt;br&gt;B. It resulted in a significant diplomatic victory for the US&lt;br&gt;C. It was a failed attempt to overthrow the Communist government&lt;br&gt;D. It strengthened US relations with the Soviet Union&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;5. In what way did the Cold War influence the United States' foreign policy under Kennedy?&lt;br&gt;A. They focused solely on economic reforms&lt;br&gt;B. They aimed to contain the spread of Communism globally&lt;br&gt;C. They sought to establish better relations with the Soviet Union&lt;br&gt;D. They withdrew from foreign conflicts entirely&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes John F. Kennedy's presidency and his various plans through detailed accounts of significant historical events and decisions. The text outlines his initiatives in social programs, foreign relations, and the space race, highlighting key moments such as the Bay of Pigs invasion and the Cuban Missile Crisis.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): the prolonged period of geopolitical tension between the Soviet Union and the United States after World War II.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a former federal socialist state in Eastern Europe and northern Asia.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characterized by a political and economic ideology advocating for communal ownership and the absence of social classes.&lt;/p&gt;
+&lt;p&gt;space program (noun): a coordinated series of projects conducted by a nation to explore outer space.&lt;/p&gt;
+&lt;p&gt;relationships (noun): the way in which two or more concepts, objects, or people are connected.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology that advocates for a classless society in which all property is publicly owned.&lt;/p&gt;
+&lt;p&gt;overthrow (verb): to remove forcibly from power.&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): a failed invasion of Cuba by Cuban exiles organized by the United States government.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characterized by the principles of Communism.&lt;/p&gt;
+&lt;p&gt;weapons (noun): instruments used for fighting or for causing harm or damage.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom, often associated with atomic energy or weapons.&lt;/p&gt;
+&lt;p&gt;advisers (noun): individuals who give advice, typically in a professional or official capacity.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation in October 1962 between the United States and the Soviet Union regarding Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;
+&lt;p&gt;showdown (noun): a tense confrontation or decisive contest.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing&lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*.&lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US *space program*.&lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed.&lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent *weapons* to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese.&lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast.&lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of the main concerns for John F. Kennedy during his presidency according to the text?&lt;br&gt;A. Increasing taxes on the rich&lt;br&gt;B. Stopping the spread of Communism&lt;br&gt;C. Expanding trade with the Soviet Union&lt;br&gt;D. Promoting environmental policies&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. Which event signified a major confrontation in the Cold War during Kennedy's presidency?&lt;br&gt;A. The Bay of Pigs invasion&lt;br&gt;B. The launch of Granma&lt;br&gt;C. The Civil Rights Movement&lt;br&gt;D. The Cuban Missile Crisis&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;3. How did Kennedy respond to the situation involving Cuba in October 1962?&lt;br&gt;A. He sent troops to invade&lt;br&gt;B. He initiated peace talks with the Soviet Union&lt;br&gt;C. He ordered a naval blockade&lt;br&gt;D. He withdrew all support from Latin America&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;4. According to the article, what was a consequence of the Cold War that Kennedy faced concerning international relations?&lt;br&gt;A. Increased cooperation with Communist nations&lt;br&gt;B. Military involvement in Vietnam&lt;br&gt;C. A reduction in the US space program&lt;br&gt;D. Stronger alliances with European countries&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;5. What impact did the Cold War have on Kennedy's plans for space exploration?&lt;br&gt;A. It led to decreased funding for NASA&lt;br&gt;B. It motivated the US to beat the Soviet Union in space&lt;br&gt;C. It caused him to abandon all space missions&lt;br&gt;D. It had no impact on Kennedy's plans&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes John F. Kennedy's presidential plans and actions during his time in office, highlighting his initiatives in social programs, civil rights, and foreign policy through a chronological narrative. The text details critical events such as the Bay of Pigs invasion and the Cuban Missile Crisis, illustrating Kennedy's strategies in both domestic and international arenas.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): a state of political hostility between countries characterized by threats, propaganda, and other measures short of open warfare.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a former federation of Communist republics in eastern Europe and northern Asia.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characteristic of communism.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology advocating for class war and leading to a society in which all property is publicly owned.&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): a failed invasion of Cuba undertaken by a CIA-sponsored paramilitary group.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characteristic of communism.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characteristic of communism.&lt;/p&gt;
+&lt;p&gt;North Vietnam (proper noun): the northern part of Vietnam, officially known as the Democratic Republic of Vietnam, which was governed by communists from 1945 until the end of the Vietnam War in 1975.&lt;/p&gt;
+&lt;p&gt;South Vietnam (proper noun): the southern part of Vietnam, officially known as the Republic of Vietnam, which existed from 1955 until 1975.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom or nuclear energy.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom or nuclear energy.&lt;/p&gt;
+&lt;p&gt;showdown (noun): a decisive confrontation or contest.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation between the United States and the Soviet Union in October 1962 over the presence of Soviet ballistic missiles in Cuba.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;Relationships with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to overthrow Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent weapons to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of John F. Kennedy's major goals during his presidency regarding the Cold War?&lt;br&gt;A. To eliminate poverty in the United States&lt;br&gt;B. To enhance American civil rights&lt;br&gt;C. To win the race to the moon against the Soviet Union&lt;br&gt;D. To engage in a military confrontation with the Soviet Union&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. What was the purpose of training Cubans to overthrow their leader during Kennedy's presidency?&lt;br&gt;A. To establish a democratic government in Cuba&lt;br&gt;B. To stop the spread of Communism&lt;br&gt;C. To improve relations with the Soviet Union&lt;br&gt;D. To increase American tourism in Cuba&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;3. During the Cuban Missile Crisis, what action did President Kennedy take to address the potential threat of nuclear missiles in Cuba?&lt;br&gt;A. He launched an airstrike against Cuba&lt;br&gt;B. He initiated a naval blockade of Cuba&lt;br&gt;C. He called for immediate peace talks with the Soviet Union&lt;br&gt;D. He sent more troops to South Vietnam&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;4. How did the failure of the Bay of Pigs invasion impact U.S. relations with Cuba and the Soviet Union?&lt;br&gt;A. It strengthened U.S. ties with the Soviet Union&lt;br&gt;B. It escalated the Cold War tensions between the U.S. and Soviet Union&lt;br&gt;C. It led to the unification of Cuba and the United States&lt;br&gt;D. It resulted in greater American support for communism in Cuba&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;5. Why did Kennedy send weapons to India during the conflict with Communist China?&lt;br&gt;A. To promote democracy in Asia&lt;br&gt;B. To contain the spread of Communism in the region&lt;br&gt;C. To fulfill an alliance with India&lt;br&gt;D. To prepare for a potential war with the Soviet Union&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the significant plans and actions of President John F. Kennedy during his time in office, highlighting his initiatives in civil rights, space exploration, and foreign relations through a detailed recounting of historical events.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): the period of geopolitical tension between the Soviet Union and the United States after World War II&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to a political ideology advocating for a classless system in which the means of production are communally owned&lt;/p&gt;
+&lt;p&gt;space program (noun): a program that involves the exploration of outer space&lt;/p&gt;
+&lt;p&gt;relationships (noun): the way in which two or more people or groups regard and behave toward each other&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology that seeks to establish a classless society&lt;/p&gt;
+&lt;p&gt;overthrow (verb): to remove forcibly from power&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): a failed invasion of Cuba by a CIA-sponsored paramilitary group in 1961&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to a political ideology advocating for a classless system in which the means of production are communally owned&lt;/p&gt;
+&lt;p&gt;weapons (noun): tools or instruments used in combat or warfare&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to a political ideology advocating for a classless system in which the means of production are communally owned&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom&lt;/p&gt;
+&lt;p&gt;coast (noun): the part of the land adjoining or near the ocean&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom&lt;/p&gt;
+&lt;p&gt;showdown (noun): a decisive confrontation or contest&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation between the United States and the Soviet Union in October 1962 over Soviet ballistic missiles deployed in Cuba&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the Soviet Union. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US *space program*. &lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent *weapons* to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s *coast*. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of President Kennedy's major goals during the Cold War?&lt;br&gt;A. To improve civil rights only&lt;br&gt;B. To increase agricultural production &lt;br&gt;C. To put a person on the moon before the Soviet Union&lt;br&gt;D. To eliminate all military forces in Europe&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. How did Kennedy's actions in Cuba reflect the United States' approach to the spread of Communism?&lt;br&gt;A. He supported the Communist leader in Cuba. &lt;br&gt;B. He ignored the situation and focused solely on domestic issues.&lt;br&gt;C. He trained Cubans to overthrow the Communist government.&lt;br&gt;D. He offered economic aid to the Soviet Union.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); CCSS.RI.5.1]&lt;br&gt;&lt;br&gt;3. What was a significant outcome of the Cuban Missile Crisis for Kennedy and the United States?&lt;br&gt;A. It resulted in the establishment of communist government in Cuba. &lt;br&gt;B. Kennedy lost support from military leaders.&lt;br&gt;C. The US Navy successfully prevented Soviet ships from reaching Cuba.&lt;br&gt;D. The Soviet Union won the confrontation with the US.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;4. What event did Kennedy respond to by sending weapons to India?&lt;br&gt;A. The Bay of Pigs invasion&lt;br&gt;B. The Cuban Missile Crisis&lt;br&gt;C. The invasion of India by Communist China&lt;br&gt;D. The assassination of a foreign leader&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1]&lt;br&gt;&lt;br&gt;5. Which of the following actions signified the United States' commitment to opposing Communism in Southeast Asia?&lt;br&gt;A. Sending military advisers to South Vietnam&lt;br&gt;B. Cutting all diplomatic ties with North Vietnam&lt;br&gt;C. Negotiating peace treaties with the Soviet Union&lt;br&gt;D. Establishing trade relations with China&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F51"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,6 +1978,246 @@
         <v>86</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/completed-lesson-plans/smart-lesson-plans-20241023.xlsx
+++ b/completed-lesson-plans/smart-lesson-plans-20241023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="139">
   <si>
     <t>Content ID</t>
   </si>
@@ -819,6 +819,191 @@
   </si>
   <si>
     <t>&lt;p&gt;1. What was one of President Kennedy's major goals during the Cold War?&lt;br&gt;A. To improve civil rights only&lt;br&gt;B. To increase agricultural production &lt;br&gt;C. To put a person on the moon before the Soviet Union&lt;br&gt;D. To eliminate all military forces in Europe&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. How did Kennedy's actions in Cuba reflect the United States' approach to the spread of Communism?&lt;br&gt;A. He supported the Communist leader in Cuba. &lt;br&gt;B. He ignored the situation and focused solely on domestic issues.&lt;br&gt;C. He trained Cubans to overthrow the Communist government.&lt;br&gt;D. He offered economic aid to the Soviet Union.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); CCSS.RI.5.1]&lt;br&gt;&lt;br&gt;3. What was a significant outcome of the Cuban Missile Crisis for Kennedy and the United States?&lt;br&gt;A. It resulted in the establishment of communist government in Cuba. &lt;br&gt;B. Kennedy lost support from military leaders.&lt;br&gt;C. The US Navy successfully prevented Soviet ships from reaching Cuba.&lt;br&gt;D. The Soviet Union won the confrontation with the US.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;4. What event did Kennedy respond to by sending weapons to India?&lt;br&gt;A. The Bay of Pigs invasion&lt;br&gt;B. The Cuban Missile Crisis&lt;br&gt;C. The invasion of India by Communist China&lt;br&gt;D. The assassination of a foreign leader&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1]&lt;br&gt;&lt;br&gt;5. Which of the following actions signified the United States' commitment to opposing Communism in Southeast Asia?&lt;br&gt;A. Sending military advisers to South Vietnam&lt;br&gt;B. Cutting all diplomatic ties with North Vietnam&lt;br&gt;C. Negotiating peace treaties with the Soviet Union&lt;br&gt;D. Establishing trade relations with China&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;In this informational e-book, Megan M. Gunderson describes the plans and actions of President John F. Kennedy during his time in office, focusing on domestic policies and international conflicts through detailed historical accounts. The text highlights significant events such as the Cold War, the Bay of Pigs invasion, and the Cuban Missile Crisis, illustrating Kennedy's leadership and strategic decisions.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): a period of geopolitical tension between the Soviet Union and the United States after World War II&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a constitutional republic that existed from 1922 to 1991, consisting of multiple Soviet republics&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to a political ideology advocating for a classless system in which the means of production are communally owned&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): the political doctrine advocating for communal ownership of property and the means of production&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to a political ideology advocating for a classless system in which the means of production are communally owned&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to a political ideology advocating for a classless system in which the means of production are communally owned&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom or to atomic energy&lt;/p&gt;
+&lt;p&gt;Soviet (proper adjective): relating to the former Soviet Union&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom or to atomic energy&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation between the United States and the Soviet Union in October 1962 over the presence of Soviet ballistic missiles in Cuba&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;Relationships with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to overthrow Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the Bay of Pigs. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent weapons to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The *Soviet* leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The *Soviet* ships stayed away from the blocked area. Kennedy won the showdown! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of John F. Kennedy's goals during his presidency in relation to the Cold War?&lt;br&gt;A. To establish peace treaties with the Soviet Union&lt;br&gt;B. To send a person to the moon before the Soviet Union did&lt;br&gt;C. To end all military involvement in Vietnam&lt;br&gt;D. To eliminate civil rights issues in America&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. How did Kennedy respond to the Cuban Missile Crisis?&lt;br&gt;A. He withdrew American troops from Vietnam.&lt;br&gt;B. He allowed Soviet ships to deliver supplies to Cuba.&lt;br&gt;C. He ordered a naval blockade to prevent supplies from reaching Cuba.&lt;br&gt;D. He ignored the Soviet threat entirely.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;3. What major event in 1961 was part of Kennedy's efforts to combat Communism?&lt;br&gt;A. The Cuban Missile Crisis&lt;br&gt;B. The Bay of Pigs invasion&lt;br&gt;C. The establishment of NATO&lt;br&gt;D. The creation of the United Nations&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;4. Which action did Kennedy take in response to the invasion of India by Communist China?&lt;br&gt;A. He ignored the conflict.&lt;br&gt;B. He sent diplomatic letters.&lt;br&gt;C. He provided weapons to India&amp;rsquo;s army.&lt;br&gt;D. He proposed a ceasefire.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;5. What was a consequence of the Cold War on international relations during Kennedy's presidency?&lt;br&gt;A. Increased cooperation among all nations&lt;br&gt;B. Heightened military involvement in various countries&lt;br&gt;C. A decrease in space exploration initiatives&lt;br&gt;D. Improved relationships with Communist countries&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the key plans and challenges faced by John F. Kennedy during his presidency through factual language and historical context. The text covers his domestic agenda, Cold War strategies, and significant events such as the Cuban Missile Crisis, providing a comprehensive overview of his leadership.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): the period of political tension and military rivalry between the United States and the Soviet Union after World War II.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a former federation of communist republics that existed from 1922 to 1991.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characterized by the principles of Communism.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology advocating for a classless system in which the means of production are communally owned.&lt;/p&gt;
+&lt;p&gt;Cuba (proper noun): a country located in the Caribbean.&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): a failed military invasion of Cuba undertaken by a CIA-sponsored paramilitary group in 1961.&lt;/p&gt;
+&lt;p&gt;weapons (noun): instruments of combat or to kill.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom or atomic energy.&lt;/p&gt;
+&lt;p&gt;advisers (noun): individuals who provide advice.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation in October 1962 between the United States and the Soviet Union regarding Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;Relationships with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s Communist leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, Communist China invaded India. Kennedy sent *weapons* to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting Communist North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A nuclear war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. How did President Kennedy's approach to the Cold War influence international relations?&lt;br&gt;A. It promoted peace talks with the Soviet Union.&lt;br&gt;B. It focused solely on domestic issues.&lt;br&gt;C. It involved military actions to counter Communism.&lt;br&gt;D. It isolated the U.S. from foreign conflicts.&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. What was one major consequence of the failed Bay of Pigs invasion?&lt;br&gt;A. Strengthened U.S. relations with Cuba.&lt;br&gt;B. Increased fears about Soviet expansion.&lt;br&gt;C. Encouraged more U.S. military interventions.&lt;br&gt;D. Led to immediate peace negotiations.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;3. In what way did the Cuban Missile Crisis showcase the tense relationship between the U.S. and the Soviet Union?&lt;br&gt;A. It resulted in the removal of all nuclear weapons.&lt;br&gt;B. It highlighted the willingness of both countries to engage in military conflict.&lt;br&gt;C. It led to an immediate end of the Cold War.&lt;br&gt;D. It established a permanent peace agreement.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;4. What action did Kennedy take in response to the Soviet missile bases in Cuba?&lt;br&gt;A. He launched a preemptive strike against the Soviet Union.&lt;br&gt;B. He initiated a naval blockade to prevent supplies from reaching Cuba.&lt;br&gt;C. He sought a diplomatic resolution through the United Nations.&lt;br&gt;D. He withdrew all military advisers from Vietnam.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;5. How did Kennedy's presidency reflect the broader struggles of the Cold War?&lt;br&gt;A. It was primarily focused on social reform within the U.S.&lt;br&gt;B. It ignored international conflicts in favor of economic growth.&lt;br&gt;C. It depicted the global effort to contain and respond to Communism.&lt;br&gt;D. It marked the end of military involvement in foreign nations.&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the key plans and challenges faced by John F. Kennedy during his presidency through a factual recounting of historical events and decisions. The text highlights Kennedy's initiatives in domestic policies, space exploration, and international relations amid the Cold War context.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Kennedy; Cold War; Cuban Missile Crisis; civil rights; US space program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): a period of political tension and military rivalry between the Soviet Union and the United States after World War II.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a former federation of communist republics that existed from 1922 to 1991.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to a political ideology advocating for a classless society and the abolition of private property.&lt;/p&gt;
+&lt;p&gt;space program (noun): a program that conducts space exploration and research activities.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology that advocates for communal ownership of resources and means of production.&lt;/p&gt;
+&lt;p&gt;Cubans (proper noun): the people of Cuba.&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): a failed invasion of Cuba by a CIA-sponsored paramilitary group in 1961.&lt;/p&gt;
+&lt;p&gt;China (proper noun): a country in East Asia.&lt;/p&gt;
+&lt;p&gt;India (proper noun): a country in South Asia.&lt;/p&gt;
+&lt;p&gt;advisers (noun): individuals who provide advice or guidance in a specific area.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom or the use of nuclear energy, especially in weapons.&lt;/p&gt;
+&lt;p&gt;showdown (noun): a decisive confrontation or conflict.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation between the United States and the Soviet Union in October 1962 over Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*.&lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US *space program*.&lt;br&gt;&lt;br&gt;Relationships with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of *Cubans* to overthrow Cuba&amp;rsquo;s Communist leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed.&lt;br&gt;&lt;br&gt;Then, in 1962, Communist *China* invaded *India*. Kennedy sent weapons to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting Communist North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese.&lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast.&lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of President John F. Kennedy's goals during the Cold War?&lt;br&gt;A. To establish a one-world government&lt;br&gt;B. To put a person on the moon before the Soviet Union&lt;br&gt;C. To create alliances with Communist countries&lt;br&gt;D. To abolish the US military&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. What significant event in 1961 aimed to prevent the spread of Communism in Cuba?&lt;br&gt;A. The establishment of the United Nations&lt;br&gt;B. The invasion at the Bay of Pigs&lt;br&gt;C. The Space Race&lt;br&gt;D. The Cuban Missile Crisis&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;3. How did Kennedy respond to the Soviet Union's actions during the Cuban Missile Crisis?&lt;br&gt;A. He ignored the situation and focused on domestic policies.&lt;br&gt;B. He sent troops to invade Cuba.&lt;br&gt;C. He blockaded Cuba to prevent Soviet shipments.&lt;br&gt;D. He immediately offered to negotiate with the Soviet leader.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C)]&lt;br&gt;&lt;br&gt;4. What impact did the Cold War have on US foreign policy during Kennedy's presidency?&lt;br&gt;A. It encouraged peaceful coexistence with Communist countries.&lt;br&gt;B. It led to increased military intervention in foreign conflicts.&lt;br&gt;C. It focused solely on economic issues.&lt;br&gt;D. It reduced the importance of space exploration.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;5. In what way did the Cold War influence Kennedy&amp;rsquo;s approach to international relations?&lt;br&gt;A. He prioritized negotiations with European allies.&lt;br&gt;B. He aimed to expand Communism globally.&lt;br&gt;C. He sought to contain and combat the spread of Communism.&lt;br&gt;D. He avoided involvement in global conflicts.&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;In this informational e-book, Megan M. Gunderson describes the key plans and policies of President John F. Kennedy during his administration through a series of historical events and decisions. The text outlines his initiatives related to civil rights, the space race, and foreign relations amid the tensions of the Cold War.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): a period of geopolitical tension between the Soviet Union and the United States after World War II.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a former federal socialist state in Eastern Europe and northern Asia.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characterized by the political ideology of communism.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology advocating for a classless society.&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): an unsuccessful invasion of Cuba by Cuban exiles supported by the US in 1961.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or characterized by the political ideology of communism.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the use of nuclear weapons or energy.&lt;/p&gt;
+&lt;p&gt;advisers (noun): individuals who provide advice or guidance, especially in a professional or official context.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation in October 1962 over Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. How did Kennedy's view on international relationships during the Cold War influence the U.S. actions in Cuba?&lt;br&gt;A. He believed in diplomatic solutions only.&lt;br&gt;B. He sought to prevent the spread of Communism through military intervention.&lt;br&gt;C. He ignored the situation entirely.&lt;br&gt;D. He proposed to negotiate directly with the Soviet Union only.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. What was one of the major achievements of the U.S. space program during Kennedy's presidency?&lt;br&gt;A. Establishing a permanent base on the moon.&lt;br&gt;B. Launching the first American satellite.&lt;br&gt;C. Putting a person on the moon before the Soviet Union.&lt;br&gt;D. Sending astronauts to Mars.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;3. Which event during the Cold War reflected the heightened tensions between the U.S. and the Soviet Union in 1962?&lt;br&gt;A. The invasion of India by Communist China.&lt;br&gt;B. The Bay of Pigs invasion.&lt;br&gt;C. The building of nuclear missile bases in Cuba.&lt;br&gt;D. The signing of a peace treaty with Vietnam.&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;4. In response to the potential nuclear threat posed by Cuba, what decisive action did Kennedy take?&lt;br&gt;A. He decided to ignore the situation.&lt;br&gt;B. He proposed a trade agreement with the Soviet Union.&lt;br&gt;C. He ordered a naval blockade of Cuba.&lt;br&gt;D. He sent troops to invade Cuba.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;5. What lesson can be inferred from the Bay of Pigs invasion regarding U.S. foreign policy during the Cold War?&lt;br&gt;A. Military intervention was always successful.&lt;br&gt;B. The U.S. government underestimated the strength of Communist regimes.&lt;br&gt;C. Diplomatic solutions were preferred over military actions.&lt;br&gt;D. The importance of international alliances was overrated.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the key initiatives and challenges faced by President John F. Kennedy during his time in office, utilizing clear and factual language choices. The text outlines his domestic policies, international relations, and significant events such as the Cuban Missile Crisis, providing readers with a concise overview of his presidency.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): a state of political hostility between countries characterized by threats, propaganda, and other measures short of open warfare.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a former federal socialist state in Eurasia that existed from 1922 to 1991.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or denoting a political ideology advocating for a classless system in which the means of production are owned communally.&lt;/p&gt;
+&lt;p&gt;relationships (noun): the way in which two or more concepts, objects, or people are connected.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology advocating for a classless society and communal ownership of the means of production.&lt;/p&gt;
+&lt;p&gt;overthrow (verb): to remove forcibly from power.&lt;/p&gt;
+&lt;p&gt;Cuba (proper noun): an island nation in the Caribbean.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or denoting a political ideology advocating for a classless system in which the means of production are owned communally.&lt;/p&gt;
+&lt;p&gt;China (proper noun): a large country in East Asia.&lt;/p&gt;
+&lt;p&gt;India (proper noun): a country in South Asia.&lt;/p&gt;
+&lt;p&gt;South Vietnam (proper noun): a nation that existed from 1955 to 1975, recognized during the Vietnam War.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or denoting a political ideology advocating for a classless system in which the means of production are owned communally.&lt;/p&gt;
+&lt;p&gt;North Vietnam (proper noun): a communist state in the northern part of Vietnam that existed from 1954 to 1976.&lt;/p&gt;
+&lt;p&gt;advisers (noun): a person who offers suggestions about the best course of action to someone.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom; involving atomic energy or weapons.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation between the United States and the Soviet Union in October 1962 over Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;
+&lt;p&gt;showdown (noun): a decisive confrontation or contest.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the Bay of Pigs. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent weapons to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop Soviet ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of President John F. Kennedy&amp;rsquo;s significant plans during his presidency that related to the Cold War?&lt;br&gt;A. To improve civil rights through legislation &lt;br&gt;B. To establish peace with the Soviet Union &lt;br&gt;C. To land a person on the moon before the Soviet Union &lt;br&gt;D. To reduce military spending &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;2. Which event highlighted the tensions between the United States and the Soviet Union during Kennedy's presidency?&lt;br&gt;A. The Bay of Pigs invasion &lt;br&gt;B. The space race &lt;br&gt;C. The Cuban Missile Crisis &lt;br&gt;D. The Civil Rights Movement &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;3. How did Kennedy respond to the invasion of Cuba by the trained Cuban group?&lt;br&gt;A. He supported the invasion with military force &lt;br&gt;B. He decided to negotiate with the Soviet Union &lt;br&gt;C. He took no action and allowed it to proceed &lt;br&gt;D. He authorized military intervention but later withdrew support &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;4. What was the primary goal of sending military advisers to South Vietnam during the Cold War?&lt;br&gt;A. To train them for an invasion of China &lt;br&gt;B. To support the fight against Communist North Vietnam &lt;br&gt;C. To establish peace talks with Communist leaders &lt;br&gt;D. To decrease U.S. involvement in foreign conflicts &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;5. What was the result of Kennedy&amp;rsquo;s decision to block Soviet ships during the Cuban Missile Crisis?&lt;br&gt;A. A nuclear war was successfully avoided &lt;br&gt;B. The Soviet Union launched an attack on the U.S. &lt;br&gt;C. The United States backed down and allowed the supplies through &lt;br&gt;D. Cuba became an official U.S. territory &lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1; CCSS.RI.4.1; TEKS.ELAR.4.7(C); CCSS.RI.5.1; TEKS.ELAR.5.7(C)] &lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes John F. Kennedy's presidency and his various plans, focusing on his domestic initiatives and international challenges during the Cold War. Through factual language choices, the text outlines significant events such as the Bay of Pigs invasion and the Cuban Missile Crisis.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): a period of geopolitical tension between the Soviet Union and the United States after World War II.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a socialist state that existed from 1922 to 1991, encompassing Russia and other republics.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or denoting a political system based on the principles of communism.&lt;/p&gt;
+&lt;p&gt;relationships (noun): the way in which two or more people or groups regard and behave toward each other.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology advocating for a classless system in which the means of production are owned communally.&lt;/p&gt;
+&lt;p&gt;overthrow (verb): to remove forcibly from power.&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): a failed military invasion of Cuba undertaken by the United States in April 1961.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or denoting a political system based on the principles of communism.&lt;/p&gt;
+&lt;p&gt;India (proper noun): a country in South Asia.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): relating to or denoting a political system based on the principles of communism.&lt;/p&gt;
+&lt;p&gt;North Vietnam (proper noun): a state in Southeast Asia that existed from 1954 to 1976, during the Vietnam War.&lt;/p&gt;
+&lt;p&gt;advisers (noun): people who provide advice, typically in a professional context.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom or its energy.&lt;/p&gt;
+&lt;p&gt;Soviet (proper adjective): relating to the Soviet Union.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the nucleus of an atom or its energy.&lt;/p&gt;
+&lt;p&gt;showdown (noun): a decisive confrontation or contest.&lt;/p&gt;
+&lt;p&gt;Missile Crisis (proper noun): a 13-day confrontation between the United States and the Soviet Union in October 1962 over Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* Soviet Union did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;*Relationships* with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded *India*. Kennedy sent weapons to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop *Soviet* ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The Soviet leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The Soviet ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the Cuban *Missile* Crisis.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of John F. Kennedy's major goals during the Cold War era regarding international relations?&lt;br&gt;A. To promote socialism in Latin America&lt;br&gt;B. To end all military alliances with other countries&lt;br&gt;C. To stop the spread of Communism&lt;br&gt;D. To reduce the US military presence worldwide&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;2. How did the Cuban Missile Crisis demonstrate the tensions of the Cold War?&lt;br&gt;A. It led to the immediate withdrawal of US military forces from Vietnam.&lt;br&gt;B. It showed the willingness of the US and the Soviet Union to engage in direct military conflict.&lt;br&gt;C. It resulted in a peaceful resolution with no further conflicts.&lt;br&gt;D. It was solely focused on trade agreements between the US and the Soviet Union.&lt;br&gt;[BEST.ELA.K12.EE.3.1; CCSS.RI.5.1; TEKS.ELAR.5.7(C)]&lt;br&gt;&lt;br&gt;3. What was the outcome of the Bay of Pigs invasion under Kennedy's administration?&lt;br&gt;A. A successful overthrow of Cuba's Communist leader&lt;br&gt;B. Increased support for Communism in Latin America&lt;br&gt;C. Strengthened US-Soviet relations&lt;br&gt;D. A major victory in the Cold War for the US&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;4. In what way did the US space program become a focus of Kennedy's plans during the Cold War?&lt;br&gt;A. It aimed to promote agriculture in North Vietnam.&lt;br&gt;B. It was a strategic move to beat the Soviet Union in the space race.&lt;br&gt;C. It was intended to support Communist leaders.&lt;br&gt;D. It focused on providing humanitarian aid to other countries.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;5. What action did Kennedy take in response to the nuclear missile bases being built in Cuba?&lt;br&gt;A. He ignored the situation to avoid conflict.&lt;br&gt;B. He increased US military troops in Cuba.&lt;br&gt;C. He ordered a naval blockade of Cuba.&lt;br&gt;D. He initiated an airstrike on Cuba.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C)]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this informational e-book, Megan M. Gunderson describes the key plans and actions of John F. Kennedy during his presidency, highlighting his initiatives in civil rights, space exploration, and foreign policy through straightforward and factual language choices. The text provides an overview of significant events, including the Bay of Pigs invasion and the Cuban Missile Crisis.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;poverty (noun): the state of being extremely poor.&lt;/p&gt;
+&lt;p&gt;civil rights (noun): the rights of citizens to political and social freedom and equality.&lt;/p&gt;
+&lt;p&gt;Cold War (proper noun): a state of geopolitical tension after World War II between powers in the Eastern Bloc and the Western Bloc.&lt;/p&gt;
+&lt;p&gt;Soviet Union (proper noun): a socialist state that existed in Eurasia from 1922 to 1991.&lt;/p&gt;
+&lt;p&gt;Communist (proper adjective): pertaining to communism, a political ideology advocating class war and leading to a society in which all property is publicly owned.&lt;/p&gt;
+&lt;p&gt;Communism (proper noun): a political and economic ideology that envisions a classless society in which all property is communally owned.&lt;/p&gt;
+&lt;p&gt;Cuba (proper noun): a country located in the Caribbean region of North America.&lt;/p&gt;
+&lt;p&gt;Bay of Pigs (proper noun): a resort on the southern coast of Cuba where a failed invasion occurred in 1961.&lt;/p&gt;
+&lt;p&gt;Communist China (proper noun): a term referring to the People's Republic of China under the rule of the Communist Party.&lt;/p&gt;
+&lt;p&gt;India (proper noun): a country in South Asia.&lt;/p&gt;
+&lt;p&gt;South Vietnam (proper noun): a former country in Southeast Asia that existed from 1955 to 1975.&lt;/p&gt;
+&lt;p&gt;Communist North Vietnam (proper noun): a term referring to the Democratic Republic of Vietnam governed by the Communist Party.&lt;/p&gt;
+&lt;p&gt;advisers (noun): individuals who provide recommendations or guidance.&lt;/p&gt;
+&lt;p&gt;nuclear (adjective): relating to the energy released during nuclear reactions; in this context, often refers to nuclear weapons.&lt;/p&gt;
+&lt;p&gt;Soviet (proper adjective): pertaining to the former Soviet Union.&lt;/p&gt;
+&lt;p&gt;Cuban Missile Crisis (proper noun): a 13-day confrontation in 1962 between the United States and the Soviet Union concerning Soviet ballistic missiles deployed in Cuba.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Making Plans (excerpt from John F. Kennedy) &lt;br&gt;By Megan M. Gunderson, Abdo Publishing &lt;br&gt;&lt;br&gt;John F. Kennedy became President of the United States on January 20, 1961. He had many plans when he took office. These included programs for higher wages and aid for people experiencing *poverty*. He also hoped to improve *civil rights*. &lt;br&gt;&lt;br&gt;During this time, America was part of the *Cold War* with the *Soviet Union*. Another plan was to put a person on the moon before the *Communist* *Soviet Union* did. As a result, Kennedy greatly improved the US space program. &lt;br&gt;&lt;br&gt;Relationships with other countries were another concern for Kennedy. American officials wanted to stop the spread of *Communism*. So, they trained a group of Cubans to *overthrow* Cuba&amp;rsquo;s *Communist* leader. In 1961, the group invaded Cuba at the *Bay of Pigs*. However, the effort failed. &lt;br&gt;&lt;br&gt;Then, in 1962, *Communist* China invaded India. Kennedy sent weapons to India&amp;rsquo;s army. Meanwhile, South Vietnam was fighting *Communist* North Vietnam. Kennedy sent thousands of US military *advisers* to help the South Vietnamese. &lt;br&gt;&lt;br&gt;In October 1962, Kennedy learned *nuclear* missile bases were being built in Cuba. He wanted to stop *Soviet* ships from bringing supplies there. So, Kennedy stated that the US Navy would block Cuba&amp;rsquo;s coast. &lt;br&gt;&lt;br&gt;The *Soviet* leader said his country would guard its shipping rights. A *nuclear* war could begin. But Kennedy held his ground. The *Soviet* ships stayed away from the blocked area. Kennedy won the *showdown*! This event became known as the *Cuban Missile Crisis*.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1. What was one of John F. Kennedy&amp;rsquo;s main goals during his presidency related to the Cold War?&lt;br&gt;A. To improve civil rights laws.&lt;br&gt;B. To enhance the US space program to outpace the Soviet Union.&lt;br&gt;C. To promote global free trade.&lt;br&gt;D. To establish diplomatic relations with China.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;2. How did Kennedy's actions in Cuba exemplify the U.S. approach to the Cold War?&lt;br&gt;A. By negotiating peace agreements.&lt;br&gt;B. By attempting to overthrow a communist regime.&lt;br&gt;C. By establishing trade relations with Cuba.&lt;br&gt;D. By ignoring communist expansion.&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C); CCSS.RI.3.1]&lt;br&gt;&lt;br&gt;3. What event illustrated the heightened tension between the U.S. and Soviet Union during Kennedy's presidency?&lt;br&gt;A. The Bay of Pigs invasion.&lt;br&gt;B. The establishment of NATO.&lt;br&gt;C. The Berlin Wall's construction.&lt;br&gt;D. The signing of the SALT treaty.&lt;br&gt;[CCSS.RI.4.1; TEKS.ELAR.4.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;4. In what way did Kennedy respond to the discovery of nuclear missile bases in Cuba?&lt;br&gt;A. He proposed a diplomatic solution.&lt;br&gt;B. He decided to ignore the situation.&lt;br&gt;C. He implemented a naval blockade.&lt;br&gt;D. He immediately launched an airstrike.&lt;br&gt;[CCSS.RI.5.1; TEKS.ELAR.5.7(C); CCSS.RI.3.1]&lt;br&gt;&lt;br&gt;5. What underlying concern drove U.S. foreign policy during the Cold War, as indicated by Kennedy's actions?&lt;br&gt;A. Economic expansion into Europe.&lt;br&gt;B. The containment of communism.&lt;br&gt;C. The promotion of democracy worldwide.&lt;br&gt;D. Strengthening alliances with capitalist countries.&lt;br&gt;[CCSS.RI.3.1; TEKS.ELAR.3.7(C); BEST.ELA.K12.EE.3.1]&lt;br&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F65"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,6 +2403,286 @@
         <v>110</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
